--- a/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19135</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10696</v>
+        <v>11395</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32521</v>
+        <v>32885</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06001344321504638</v>
+        <v>0.0600134432150464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03354574525805892</v>
+        <v>0.03573895266605137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1019948015962118</v>
+        <v>0.103138500960585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2858</v>
+        <v>2503</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001753676309361755</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009042353970387069</v>
+        <v>0.00792090099265993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -783,19 +783,19 @@
         <v>19689</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11173</v>
+        <v>12018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33365</v>
+        <v>34262</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03101132071197145</v>
+        <v>0.03101132071197144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01759845037604556</v>
+        <v>0.01892858023535623</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0525518514032472</v>
+        <v>0.05396311542389609</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>213293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195435</v>
+        <v>195502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>228849</v>
+        <v>228627</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6689553918736822</v>
+        <v>0.6689553918736824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6129454581941199</v>
+        <v>0.6131581408283941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7177423351791471</v>
+        <v>0.7170471716017273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>314</v>
@@ -833,19 +833,19 @@
         <v>191534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177183</v>
+        <v>178081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205010</v>
+        <v>205112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6060025907506841</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5605981928798445</v>
+        <v>0.5634390443456043</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6486418159824883</v>
+        <v>0.6489625599587722</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>526</v>
@@ -854,19 +854,19 @@
         <v>404827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382506</v>
+        <v>382606</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426877</v>
+        <v>426420</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6376170438669593</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6024600938046045</v>
+        <v>0.6026175967593953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6723470372711334</v>
+        <v>0.6716263036958977</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>80517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66986</v>
+        <v>67204</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96014</v>
+        <v>96592</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2525258938722452</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2100880711919303</v>
+        <v>0.21077337025364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3011305323887287</v>
+        <v>0.3029423901871187</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -904,19 +904,19 @@
         <v>106723</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93772</v>
+        <v>93237</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120428</v>
+        <v>120180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3376667571363654</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2966902319267908</v>
+        <v>0.2949955456282853</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3810264182481678</v>
+        <v>0.3802444372466429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>283</v>
@@ -925,19 +925,19 @@
         <v>187240</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167168</v>
+        <v>167575</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>207170</v>
+        <v>207905</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2949096155647986</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2632953326064248</v>
+        <v>0.2639374838819051</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3263007383499277</v>
+        <v>0.3274577839550086</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>5900</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2810</v>
+        <v>2902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10597</v>
+        <v>11409</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01850527103902614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008814030283809178</v>
+        <v>0.009101037593120143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03323686416902292</v>
+        <v>0.03578160094608656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -975,19 +975,19 @@
         <v>17250</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12391</v>
+        <v>12740</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23524</v>
+        <v>23739</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05457697580358876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03920429107748738</v>
+        <v>0.04030868155774382</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07442939177423348</v>
+        <v>0.07510868934163839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -996,19 +996,19 @@
         <v>23150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16142</v>
+        <v>16989</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30195</v>
+        <v>30790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03646201985627073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02542463022945112</v>
+        <v>0.02675893342660762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0475580078463719</v>
+        <v>0.04849522368579365</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>267364</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>237700</v>
+        <v>239465</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>295069</v>
+        <v>300643</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5038458145689957</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4479433610636976</v>
+        <v>0.4512689259415261</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5560555306299049</v>
+        <v>0.5665598391097183</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>257</v>
@@ -1121,19 +1121,19 @@
         <v>208855</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>188689</v>
+        <v>185152</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>230798</v>
+        <v>228424</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3834201981052536</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3463998652225551</v>
+        <v>0.3399069205073973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.423703365101279</v>
+        <v>0.41934571634552</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>439</v>
@@ -1142,19 +1142,19 @@
         <v>476219</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>438137</v>
+        <v>441223</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>510192</v>
+        <v>510185</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4428453180147306</v>
+        <v>0.4428453180147305</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4074319733732709</v>
+        <v>0.4103015578873387</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4744372065924897</v>
+        <v>0.4744309604846718</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>203635</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177898</v>
+        <v>173406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>234917</v>
+        <v>232926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3837482483919985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3352475140412333</v>
+        <v>0.3267821986696313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4426993201939093</v>
+        <v>0.4389466057137603</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>322</v>
@@ -1192,19 +1192,19 @@
         <v>242539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220212</v>
+        <v>224163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>262559</v>
+        <v>265076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4452589046235813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4042705562113372</v>
+        <v>0.4115243502059298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4820110158324278</v>
+        <v>0.4866329148875397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>473</v>
@@ -1213,19 +1213,19 @@
         <v>446174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>411945</v>
+        <v>413962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>483680</v>
+        <v>484087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.414905909724253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3830754861187742</v>
+        <v>0.3849512291201353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.449783551630394</v>
+        <v>0.450162117849792</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>44495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32381</v>
+        <v>32486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61161</v>
+        <v>61153</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08384956410291373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06102158595971046</v>
+        <v>0.06121870297524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1152581043605385</v>
+        <v>0.1152416416289809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -1263,19 +1263,19 @@
         <v>64454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52792</v>
+        <v>53564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78813</v>
+        <v>78301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1183266185352154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09691684025964774</v>
+        <v>0.09833321282050607</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1446863787573626</v>
+        <v>0.1437462643711026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>130</v>
@@ -1284,19 +1284,19 @@
         <v>108949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89146</v>
+        <v>92018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>129370</v>
+        <v>131328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1013136012559396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08289887741255376</v>
+        <v>0.08556910348621496</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.120303390569219</v>
+        <v>0.1221247916796587</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>15153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7915</v>
+        <v>7856</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27395</v>
+        <v>26931</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02855637293609213</v>
+        <v>0.02855637293609212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01491667016361301</v>
+        <v>0.01480548217599249</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05162600870139173</v>
+        <v>0.05075214801437431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1334,19 +1334,19 @@
         <v>28867</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20715</v>
+        <v>21812</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38019</v>
+        <v>39463</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0529942787359498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03802874303022859</v>
+        <v>0.0400436626125952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0697966318778148</v>
+        <v>0.07244719869098515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -1355,19 +1355,19 @@
         <v>44020</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33123</v>
+        <v>33225</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59826</v>
+        <v>58552</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04093517100507692</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03080208352506029</v>
+        <v>0.03089654538927276</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05563324188396269</v>
+        <v>0.05444906117367913</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>143045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126242</v>
+        <v>125277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160767</v>
+        <v>160038</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4535570356053988</v>
+        <v>0.4535570356053987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4002816938917548</v>
+        <v>0.3972210752354964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5097504356226641</v>
+        <v>0.5074383071194074</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -1480,19 +1480,19 @@
         <v>123988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109436</v>
+        <v>109355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140264</v>
+        <v>140311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3496540458459205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3086172065958909</v>
+        <v>0.3083878095759262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3955534928751876</v>
+        <v>0.3956866006288908</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>307</v>
@@ -1501,19 +1501,19 @@
         <v>267032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244226</v>
+        <v>245714</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>289056</v>
+        <v>292117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3985645597835973</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3645251057806246</v>
+        <v>0.3667461609148904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4314360639673441</v>
+        <v>0.4360054429727634</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>95133</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>80282</v>
+        <v>79795</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>111103</v>
+        <v>109165</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3016409480579775</v>
+        <v>0.3016409480579776</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2545546920067571</v>
+        <v>0.2530099317588438</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3522771805980671</v>
+        <v>0.3461335448848573</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>184</v>
@@ -1551,19 +1551,19 @@
         <v>121800</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>108585</v>
+        <v>107424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>137610</v>
+        <v>137286</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3434842995859658</v>
+        <v>0.3434842995859659</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3062160257612477</v>
+        <v>0.3029423245962297</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3880706179250065</v>
+        <v>0.3871548744361955</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>304</v>
@@ -1572,19 +1572,19 @@
         <v>216933</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>198744</v>
+        <v>195590</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>239056</v>
+        <v>238399</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3237872741890418</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2966397687119934</v>
+        <v>0.2919325922340402</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3568075088279383</v>
+        <v>0.3558279497671576</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>52574</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41038</v>
+        <v>41855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67106</v>
+        <v>67110</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1666977836967573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1301221639317866</v>
+        <v>0.1327099662350101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2127766306224286</v>
+        <v>0.2127882187341053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>121</v>
@@ -1622,19 +1622,19 @@
         <v>73036</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61481</v>
+        <v>61137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85320</v>
+        <v>85949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2059677881653346</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1733801458318513</v>
+        <v>0.1724118833159471</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2406071058589318</v>
+        <v>0.2423825065875285</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -1643,19 +1643,19 @@
         <v>125610</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108343</v>
+        <v>109467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143477</v>
+        <v>143600</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.187482120858367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1617099681670367</v>
+        <v>0.1633879654194557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2141492747688759</v>
+        <v>0.2143325142085766</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>24633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16369</v>
+        <v>16905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34357</v>
+        <v>34252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07810423263986636</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05190037824028115</v>
+        <v>0.05360037465689307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1089372484374164</v>
+        <v>0.1086036688006716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -1693,19 +1693,19 @@
         <v>35777</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27879</v>
+        <v>28387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46247</v>
+        <v>46087</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.100893866402779</v>
+        <v>0.1008938664027791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07862034528593527</v>
+        <v>0.08005269630688652</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1304203774630177</v>
+        <v>0.1299697843319519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -1714,19 +1714,19 @@
         <v>60410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48984</v>
+        <v>47956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>73487</v>
+        <v>74272</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0901660451689939</v>
+        <v>0.09016604516899389</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07311208323584187</v>
+        <v>0.0715784571834588</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.109685140453764</v>
+        <v>0.1108566183336624</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>190773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>165584</v>
+        <v>165036</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>215164</v>
+        <v>216930</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5177562387779283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4493926525347395</v>
+        <v>0.4479052243774876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5839542404105557</v>
+        <v>0.5887466379086801</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -1839,19 +1839,19 @@
         <v>165218</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>142925</v>
+        <v>146614</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>183526</v>
+        <v>186811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3965322535303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3430289780991695</v>
+        <v>0.3518810730814442</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4404725083482446</v>
+        <v>0.4483577599486824</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>318</v>
@@ -1860,19 +1860,19 @@
         <v>355991</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>325748</v>
+        <v>325959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>390015</v>
+        <v>388503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4534234974031379</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4149035049465799</v>
+        <v>0.4151715388505409</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4967602452187992</v>
+        <v>0.4948335568528879</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>113014</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91530</v>
+        <v>92746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135500</v>
+        <v>137783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3067181683745134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2484123749456602</v>
+        <v>0.2517115369467615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3677447360048135</v>
+        <v>0.3739431036908144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>210</v>
@@ -1910,19 +1910,19 @@
         <v>146489</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127771</v>
+        <v>128790</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167088</v>
+        <v>166037</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.35158083434843</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3066573164295806</v>
+        <v>0.3091021235804874</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4010198137823546</v>
+        <v>0.3984992146344499</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>317</v>
@@ -1931,19 +1931,19 @@
         <v>259502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>232383</v>
+        <v>231493</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>287269</v>
+        <v>289754</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3305264789294582</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2959844364700543</v>
+        <v>0.2948508714106846</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3658922155516398</v>
+        <v>0.369058319501193</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>42287</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30154</v>
+        <v>29834</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59989</v>
+        <v>59096</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1147660766113782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08183801587002015</v>
+        <v>0.08096864175571412</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1628106550357575</v>
+        <v>0.1603847827133675</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>134</v>
@@ -1981,19 +1981,19 @@
         <v>77307</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63247</v>
+        <v>63864</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>91245</v>
+        <v>92516</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1855401269144921</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1517972181170778</v>
+        <v>0.1532773002766633</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2189929534407518</v>
+        <v>0.2220431654412835</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>171</v>
@@ -2002,19 +2002,19 @@
         <v>119593</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>100530</v>
+        <v>99655</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>139685</v>
+        <v>141204</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1523253819328118</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1280445913058827</v>
+        <v>0.1269300641266609</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1779163968474621</v>
+        <v>0.1798507025367956</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>22388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13242</v>
+        <v>13593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35964</v>
+        <v>36512</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06075951623618005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03593832660471944</v>
+        <v>0.03689104620773041</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09760466084175767</v>
+        <v>0.09909267791566011</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2052,19 +2052,19 @@
         <v>27644</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20639</v>
+        <v>20610</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37059</v>
+        <v>35898</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06634678520677782</v>
+        <v>0.06634678520677784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04953444318241775</v>
+        <v>0.04946421619716091</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0889444290537343</v>
+        <v>0.08615774308820279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -2073,19 +2073,19 @@
         <v>50031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37697</v>
+        <v>37053</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66623</v>
+        <v>64704</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06372464173459201</v>
+        <v>0.06372464173459202</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04801383906932052</v>
+        <v>0.04719478955989075</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08485787881362765</v>
+        <v>0.08241271041587651</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>37395</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28267</v>
+        <v>26989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50922</v>
+        <v>48790</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1828140203829252</v>
+        <v>0.1828140203829251</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1381863608850121</v>
+        <v>0.1319393665370489</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2489428111153095</v>
+        <v>0.238519024725625</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -2198,19 +2198,19 @@
         <v>22662</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15832</v>
+        <v>15955</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31103</v>
+        <v>31601</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1002548559753464</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07003942758493324</v>
+        <v>0.07058197186087353</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1375942524318066</v>
+        <v>0.1397968271196756</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -2219,19 +2219,19 @@
         <v>60058</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47620</v>
+        <v>48252</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74596</v>
+        <v>75314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1394738923043884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.110588708503691</v>
+        <v>0.1120574209456537</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1732366683189837</v>
+        <v>0.1749047812063574</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>100973</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88117</v>
+        <v>88322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>113085</v>
+        <v>113525</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4936249593550674</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4307739543966322</v>
+        <v>0.4317788572835724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5528352811057783</v>
+        <v>0.5549902060576849</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>190</v>
@@ -2269,19 +2269,19 @@
         <v>93626</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82802</v>
+        <v>82750</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104789</v>
+        <v>104970</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4141879851475325</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3663014890310936</v>
+        <v>0.3660741938835467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.46356993608313</v>
+        <v>0.4643688467639724</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>322</v>
@@ -2290,19 +2290,19 @@
         <v>194599</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>178104</v>
+        <v>177985</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210634</v>
+        <v>212303</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4519238512947981</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4136156401929745</v>
+        <v>0.4133409440037135</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4891610230135575</v>
+        <v>0.4930381019385631</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>64196</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53000</v>
+        <v>53402</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75707</v>
+        <v>74924</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.31383300222685</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2591003571081438</v>
+        <v>0.2610654996235031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3701086836768993</v>
+        <v>0.3662779744619805</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>250</v>
@@ -2340,19 +2340,19 @@
         <v>106309</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95752</v>
+        <v>94863</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>116787</v>
+        <v>116087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4702938503850885</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4235901733057015</v>
+        <v>0.4196591755073832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5166454404527696</v>
+        <v>0.5135494037258787</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>351</v>
@@ -2361,19 +2361,19 @@
         <v>170505</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>155586</v>
+        <v>153566</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>185500</v>
+        <v>186861</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3959684410616942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3613212669733527</v>
+        <v>0.3566301967497899</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4307912534783634</v>
+        <v>0.4339522115870887</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1990</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5804</v>
+        <v>5860</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009728018035157552</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002573284030712442</v>
+        <v>0.002523976581675033</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02837235259465429</v>
+        <v>0.02864681876807222</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -2411,19 +2411,19 @@
         <v>3450</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6788</v>
+        <v>6317</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01526330849203263</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.007142749234015856</v>
+        <v>0.007122531437076385</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03002866302651271</v>
+        <v>0.02794457477632745</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -2432,19 +2432,19 @@
         <v>5440</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2689</v>
+        <v>2753</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9547</v>
+        <v>9763</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01263381533911918</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.00624417160965662</v>
+        <v>0.006394054295747537</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0221716970076316</v>
+        <v>0.02267402085973029</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>120829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>105837</v>
+        <v>106251</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135697</v>
+        <v>136135</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.446345009253735</v>
+        <v>0.4463450092537349</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3909638472722333</v>
+        <v>0.3924939114317608</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5012706142297668</v>
+        <v>0.5028883943208161</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -2557,19 +2557,19 @@
         <v>104889</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92930</v>
+        <v>91599</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>118667</v>
+        <v>118160</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.397684968702508</v>
+        <v>0.3976849687025078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3523397656814778</v>
+        <v>0.3472947822848428</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4499240025996015</v>
+        <v>0.4479993394502058</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>293</v>
@@ -2578,19 +2578,19 @@
         <v>225718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>206656</v>
+        <v>206910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>246530</v>
+        <v>245924</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4223316772403293</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3866653195664312</v>
+        <v>0.3871415087593424</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4612711628953657</v>
+        <v>0.4601389287983752</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>85122</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71031</v>
+        <v>71790</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99607</v>
+        <v>99090</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3144435214389961</v>
+        <v>0.314443521438996</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2623898060246714</v>
+        <v>0.2651950876578033</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3679513804068992</v>
+        <v>0.3660409571484612</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>153</v>
@@ -2628,19 +2628,19 @@
         <v>86065</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>74762</v>
+        <v>74499</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99362</v>
+        <v>98568</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3263125814768671</v>
+        <v>0.3263125814768669</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2834567697020646</v>
+        <v>0.282460951870903</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3767274763642549</v>
+        <v>0.3737172426906508</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>271</v>
@@ -2649,19 +2649,19 @@
         <v>171187</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>152784</v>
+        <v>153641</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>188311</v>
+        <v>190110</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3203008054886546</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2858678823015062</v>
+        <v>0.2874703273970073</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.352340851823412</v>
+        <v>0.3557062828559143</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>47100</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>37662</v>
+        <v>37970</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>57758</v>
+        <v>58565</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1739906885397043</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.139122802911736</v>
+        <v>0.1402608692296803</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2133589753869358</v>
+        <v>0.2163406952941729</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>88</v>
@@ -2699,19 +2699,19 @@
         <v>44813</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36050</v>
+        <v>35240</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54635</v>
+        <v>54303</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1699076156569293</v>
+        <v>0.1699076156569292</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.136682054097137</v>
+        <v>0.1336111021080444</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2071485787754886</v>
+        <v>0.2058877187340099</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>167</v>
@@ -2720,19 +2720,19 @@
         <v>91914</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>78599</v>
+        <v>78264</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>105895</v>
+        <v>104929</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.171975725468192</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1470631940028377</v>
+        <v>0.1464364951026347</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.198136239634714</v>
+        <v>0.1963281564469614</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>17656</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11879</v>
+        <v>11688</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26001</v>
+        <v>25945</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06522078076756475</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04388009805201947</v>
+        <v>0.043177613075392</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09604774057388075</v>
+        <v>0.09583978598446419</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>69</v>
@@ -2770,19 +2770,19 @@
         <v>27983</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22268</v>
+        <v>22199</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35247</v>
+        <v>35457</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1060948341636958</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08443022562368335</v>
+        <v>0.0841683342214009</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1336361422632494</v>
+        <v>0.1344324012331155</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>100</v>
@@ -2791,19 +2791,19 @@
         <v>45638</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36748</v>
+        <v>35656</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54900</v>
+        <v>55904</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.08539179180282409</v>
+        <v>0.08539179180282407</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06875715253992305</v>
+        <v>0.06671397236633846</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1027217513901543</v>
+        <v>0.1046000737153325</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>303302</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>271384</v>
+        <v>273197</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>333466</v>
+        <v>336347</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.4219033902137301</v>
+        <v>0.42190339021373</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3775043801686114</v>
+        <v>0.3800255649243505</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4638620254636469</v>
+        <v>0.467870039556308</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>297</v>
@@ -2916,19 +2916,19 @@
         <v>250835</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>225324</v>
+        <v>226357</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>275383</v>
+        <v>278374</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3251828109183744</v>
+        <v>0.3251828109183745</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2921109613978098</v>
+        <v>0.2934496958679454</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3570073413819267</v>
+        <v>0.3608838215788664</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>535</v>
@@ -2937,19 +2937,19 @@
         <v>554137</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>513632</v>
+        <v>515006</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>592384</v>
+        <v>598938</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3718402094786907</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3446600613836862</v>
+        <v>0.345581754083941</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3975044183190595</v>
+        <v>0.4019022863759482</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>290385</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>259718</v>
+        <v>257662</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>321766</v>
+        <v>318547</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4039358764239527</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3612761144570818</v>
+        <v>0.358416235981459</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4475869285596535</v>
+        <v>0.4431097925174823</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>414</v>
@@ -2987,19 +2987,19 @@
         <v>324447</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>298507</v>
+        <v>297556</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>348931</v>
+        <v>350269</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4206138804348888</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3869855232534357</v>
+        <v>0.3857523510677076</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4523548344779164</v>
+        <v>0.4540896237325406</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>661</v>
@@ -3008,19 +3008,19 @@
         <v>614833</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>575853</v>
+        <v>574683</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>650805</v>
+        <v>654790</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4125685162942072</v>
+        <v>0.4125685162942074</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3864121065988196</v>
+        <v>0.3856265194933906</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4367068861750169</v>
+        <v>0.4393809024367343</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>100033</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79528</v>
+        <v>79234</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>121254</v>
+        <v>121098</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1391498657449741</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1106263518067742</v>
+        <v>0.1102166555080785</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1686680253288124</v>
+        <v>0.1684515272187983</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>172</v>
@@ -3058,19 +3058,19 @@
         <v>137247</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>119341</v>
+        <v>118080</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>157579</v>
+        <v>158864</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1779269605864946</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1547144749606758</v>
+        <v>0.1530791093950785</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2042856040500555</v>
+        <v>0.2059515425814507</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>263</v>
@@ -3079,19 +3079,19 @@
         <v>237280</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>210363</v>
+        <v>207517</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>269765</v>
+        <v>266259</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1592211341510766</v>
+        <v>0.1592211341510767</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1411591924974937</v>
+        <v>0.139248803929271</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1810187901363614</v>
+        <v>0.1786662864210342</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>25169</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15600</v>
+        <v>16337</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38564</v>
+        <v>39309</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03501086761734298</v>
+        <v>0.03501086761734296</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02169966094865318</v>
+        <v>0.02272492111289195</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05364382856782942</v>
+        <v>0.054680318959217</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>76</v>
@@ -3129,19 +3129,19 @@
         <v>58837</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46917</v>
+        <v>47149</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>73749</v>
+        <v>71648</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07627634806024207</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06082274698514824</v>
+        <v>0.06112363320140118</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09560771424559482</v>
+        <v>0.09288397758923425</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>98</v>
@@ -3150,19 +3150,19 @@
         <v>84006</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>68773</v>
+        <v>68762</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>104135</v>
+        <v>102037</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.05637014007602533</v>
+        <v>0.05637014007602534</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0461483859148942</v>
+        <v>0.04614101286343421</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06987703112883563</v>
+        <v>0.0684693332143822</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>357719</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>328552</v>
+        <v>330396</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>387017</v>
+        <v>388035</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.448228862523416</v>
+        <v>0.4482288625234159</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4116827492040225</v>
+        <v>0.413992384358246</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4849393700727395</v>
+        <v>0.4862160775848831</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>320</v>
@@ -3275,19 +3275,19 @@
         <v>283411</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>259166</v>
+        <v>257817</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>308515</v>
+        <v>309048</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3409126491588088</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3117483427671269</v>
+        <v>0.310126095421405</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.371109581921267</v>
+        <v>0.3717514078922462</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>622</v>
@@ -3296,19 +3296,19 @@
         <v>641130</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>603015</v>
+        <v>603332</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>680283</v>
+        <v>682500</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.3934754808880508</v>
+        <v>0.3934754808880509</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3700830984783761</v>
+        <v>0.3702781944949428</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4175042100894558</v>
+        <v>0.4188651762393376</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>289482</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>262013</v>
+        <v>261550</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>316914</v>
+        <v>316411</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3627268956709306</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3283071414123685</v>
+        <v>0.3277276195596884</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3970990018290783</v>
+        <v>0.3964695990290279</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>468</v>
@@ -3346,19 +3346,19 @@
         <v>352079</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>326294</v>
+        <v>325702</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>377804</v>
+        <v>378480</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4235122629808507</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3924953874588599</v>
+        <v>0.3917836333302439</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4544562517007063</v>
+        <v>0.4552700399633814</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>760</v>
@@ -3367,19 +3367,19 @@
         <v>641561</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>605808</v>
+        <v>602438</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>680911</v>
+        <v>679983</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3937399580015806</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3717973138709848</v>
+        <v>0.3697293930297638</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4178900965943101</v>
+        <v>0.4173203947593325</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>120207</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>101891</v>
+        <v>102612</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>141448</v>
+        <v>140702</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1506219096308239</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1276711704589812</v>
+        <v>0.1285751330914922</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1772369730365058</v>
+        <v>0.176302245699447</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>215</v>
@@ -3417,19 +3417,19 @@
         <v>154050</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>135422</v>
+        <v>137547</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>174055</v>
+        <v>173812</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1853050420711554</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.162897624253851</v>
+        <v>0.1654542924792196</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2093693232063316</v>
+        <v>0.2090764629319773</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>350</v>
@@ -3438,19 +3438,19 @@
         <v>274257</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>249510</v>
+        <v>249333</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>304478</v>
+        <v>304806</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1683174537362002</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1531299477207119</v>
+        <v>0.1530211260824</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1868649396458427</v>
+        <v>0.1870659173512708</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>30664</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21380</v>
+        <v>21656</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>42180</v>
+        <v>42648</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03842233217482945</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02678995667781686</v>
+        <v>0.02713557587777888</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05285217504309393</v>
+        <v>0.053438718875214</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>59</v>
@@ -3488,19 +3488,19 @@
         <v>41791</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>32094</v>
+        <v>31808</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>54813</v>
+        <v>53487</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.05027004578918522</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03860581536156824</v>
+        <v>0.03826177236998304</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06593443963544256</v>
+        <v>0.06433929543989202</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>92</v>
@@ -3509,19 +3509,19 @@
         <v>72455</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>59648</v>
+        <v>58035</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>89793</v>
+        <v>89439</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04446710737416829</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03660756012507387</v>
+        <v>0.03561740297943983</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05510807064331097</v>
+        <v>0.05489045327036723</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>1439562</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1372674</v>
+        <v>1372309</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1501428</v>
+        <v>1508001</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4083214679014763</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3893490783238654</v>
+        <v>0.3892456551596242</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4258694775380336</v>
+        <v>0.4277337714420762</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1424</v>
@@ -3634,19 +3634,19 @@
         <v>1160413</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1112482</v>
+        <v>1107499</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1212982</v>
+        <v>1211711</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3115595766527253</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2986906812948444</v>
+        <v>0.2973526594479722</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3256738001798118</v>
+        <v>0.3253325472636693</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2613</v>
@@ -3655,19 +3655,19 @@
         <v>2599975</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2515895</v>
+        <v>2524176</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2687246</v>
+        <v>2692245</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3586127722692095</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3470157002755201</v>
+        <v>0.3481578668851063</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.370649952336301</v>
+        <v>0.3713395935690174</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>1391037</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1328471</v>
+        <v>1327545</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1457214</v>
+        <v>1455476</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3945577889223278</v>
+        <v>0.3945577889223277</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3768112636213332</v>
+        <v>0.3765488265750139</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4133283328754167</v>
+        <v>0.4128353444573197</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2255</v>
@@ -3705,19 +3705,19 @@
         <v>1558579</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1503140</v>
+        <v>1499537</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1610952</v>
+        <v>1606800</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.4184633420675134</v>
+        <v>0.4184633420675133</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.4035785764054571</v>
+        <v>0.4026111338584195</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.4325249506841338</v>
+        <v>0.4314103549637242</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3634</v>
@@ -3726,19 +3726,19 @@
         <v>2949616</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2870538</v>
+        <v>2864628</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>3032945</v>
+        <v>3029727</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.4068385933782902</v>
+        <v>0.4068385933782903</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3959313502288335</v>
+        <v>0.3951161750361589</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.4183320745251537</v>
+        <v>0.4178881816300186</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>551409</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>510276</v>
+        <v>511233</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>594890</v>
+        <v>599176</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1564031376225111</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1447361480634096</v>
+        <v>0.1450074753209281</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1687363308511393</v>
+        <v>0.1699519224124836</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1261</v>
@@ -3776,19 +3776,19 @@
         <v>763939</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>720446</v>
+        <v>722660</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>804452</v>
+        <v>805904</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.2051103154814824</v>
+        <v>0.2051103154814823</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1934326980703479</v>
+        <v>0.1940273407640667</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2159876128915071</v>
+        <v>0.2163774684481026</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1902</v>
@@ -3797,19 +3797,19 @@
         <v>1315348</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1257073</v>
+        <v>1261239</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1371033</v>
+        <v>1386684</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.1814250780584835</v>
+        <v>0.1814250780584836</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1733872038220007</v>
+        <v>0.1739618662877884</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1891056068059483</v>
+        <v>0.1912644202771914</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>143552</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>121325</v>
+        <v>121158</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>170703</v>
+        <v>168288</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.04071760555368477</v>
+        <v>0.04071760555368476</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03441299976913234</v>
+        <v>0.03436567427737906</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0484187958333169</v>
+        <v>0.04773370078611945</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>405</v>
@@ -3847,19 +3847,19 @@
         <v>241598</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>219866</v>
+        <v>219519</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>267913</v>
+        <v>266571</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.06486676579827901</v>
+        <v>0.06486676579827899</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05903189739390441</v>
+        <v>0.05893881515959101</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07193194835488186</v>
+        <v>0.07157178311728875</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>562</v>
@@ -3868,19 +3868,19 @@
         <v>385151</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>354220</v>
+        <v>351563</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>421772</v>
+        <v>419322</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05312355629401683</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04885729742260182</v>
+        <v>0.04849084017478707</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05817466004116401</v>
+        <v>0.05783675221518154</v>
       </c>
     </row>
     <row r="48">
